--- a/online_translators/xlsx_accuracy/big_translation_adjective.xlsx
+++ b/online_translators/xlsx_accuracy/big_translation_adjective.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>italian</t>
   </si>
   <si>
     <t>russian</t>
@@ -369,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,31 +380,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.1764705882352941</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="C3" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
